--- a/BotsDNA_Notary Services/Data/Config.xlsx
+++ b/BotsDNA_Notary Services/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\SAP-Practice\botsDNA\BotsDNA_Notary Services\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4D1E2-80A3-48CB-ABDC-0C50495FB916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB46E1-7D48-4671-8E60-79B4A5F55F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,14 +677,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
